--- a/data/pca/factorExposure/factorExposure_2016-09-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006501796986583723</v>
+        <v>0.01300414646992414</v>
       </c>
       <c r="C2">
-        <v>-0.05414918357317648</v>
+        <v>0.04363351508255574</v>
       </c>
       <c r="D2">
-        <v>-0.03447652916018682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06540596957731544</v>
+      </c>
+      <c r="E2">
+        <v>0.05081707280084273</v>
+      </c>
+      <c r="F2">
+        <v>0.08183486304312342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05805465453929991</v>
+        <v>0.03016420653060816</v>
       </c>
       <c r="C3">
-        <v>-0.09179832964999514</v>
+        <v>0.08144172245962546</v>
       </c>
       <c r="D3">
-        <v>-0.08133736754615667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09239184798868108</v>
+      </c>
+      <c r="E3">
+        <v>0.05861324974628604</v>
+      </c>
+      <c r="F3">
+        <v>0.01249254354673602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06143335982924521</v>
+        <v>0.05717999493030071</v>
       </c>
       <c r="C4">
-        <v>-0.0607170262854614</v>
+        <v>0.06659023252609013</v>
       </c>
       <c r="D4">
-        <v>-0.02502667406439611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05977733119144202</v>
+      </c>
+      <c r="E4">
+        <v>0.04904892452263211</v>
+      </c>
+      <c r="F4">
+        <v>0.08817086201620586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03572705495669973</v>
+        <v>0.03399990105116871</v>
       </c>
       <c r="C6">
-        <v>-0.03702310795674253</v>
+        <v>0.03401761062662112</v>
       </c>
       <c r="D6">
-        <v>-0.03075620184027903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06775130220918334</v>
+      </c>
+      <c r="E6">
+        <v>0.05894592775078698</v>
+      </c>
+      <c r="F6">
+        <v>0.07231750063753251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01961843379296331</v>
+        <v>0.01922336408664008</v>
       </c>
       <c r="C7">
-        <v>-0.03973996729924886</v>
+        <v>0.03778386044838188</v>
       </c>
       <c r="D7">
-        <v>0.003509892561846655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03723546412725633</v>
+      </c>
+      <c r="E7">
+        <v>0.03104909204350699</v>
+      </c>
+      <c r="F7">
+        <v>0.1084381488709833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001926587695286428</v>
+        <v>0.003671248284611963</v>
       </c>
       <c r="C8">
-        <v>-0.02290747998037865</v>
+        <v>0.02765283199421914</v>
       </c>
       <c r="D8">
-        <v>-0.03303403288998857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03641358929851428</v>
+      </c>
+      <c r="E8">
+        <v>0.04100885285549782</v>
+      </c>
+      <c r="F8">
+        <v>0.05089645378080108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03232901712161133</v>
+        <v>0.03621480960595232</v>
       </c>
       <c r="C9">
-        <v>-0.04346716080091137</v>
+        <v>0.05251911375740415</v>
       </c>
       <c r="D9">
-        <v>-0.01317307181021887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04500193243866459</v>
+      </c>
+      <c r="E9">
+        <v>0.042053391838356</v>
+      </c>
+      <c r="F9">
+        <v>0.09213909420007113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07212043293620518</v>
+        <v>0.1002884490083214</v>
       </c>
       <c r="C10">
-        <v>0.1931745599109916</v>
+        <v>-0.1937007788725186</v>
       </c>
       <c r="D10">
-        <v>-0.00525020177920634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0006350903593644444</v>
+      </c>
+      <c r="E10">
+        <v>0.04571832055753054</v>
+      </c>
+      <c r="F10">
+        <v>0.04042168167995065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03733271925205118</v>
+        <v>0.03589093823423016</v>
       </c>
       <c r="C11">
-        <v>-0.05480705076880141</v>
+        <v>0.05159625429408688</v>
       </c>
       <c r="D11">
-        <v>-0.006237798641098722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03418381837455647</v>
+      </c>
+      <c r="E11">
+        <v>0.004921919646634598</v>
+      </c>
+      <c r="F11">
+        <v>0.06653384873939168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03432722092958642</v>
+        <v>0.03660213761059877</v>
       </c>
       <c r="C12">
-        <v>-0.04689900161994702</v>
+        <v>0.04776164635963023</v>
       </c>
       <c r="D12">
-        <v>-0.002174941348597957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0256679079929144</v>
+      </c>
+      <c r="E12">
+        <v>0.01406607228260986</v>
+      </c>
+      <c r="F12">
+        <v>0.0695577375648618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01153402140838653</v>
+        <v>0.01216391607844243</v>
       </c>
       <c r="C13">
-        <v>-0.04191350607837668</v>
+        <v>0.04146043543131823</v>
       </c>
       <c r="D13">
-        <v>-0.01723537877202814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0628249191659267</v>
+      </c>
+      <c r="E13">
+        <v>0.06091201745850629</v>
+      </c>
+      <c r="F13">
+        <v>0.1141001882417034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.006502928420702193</v>
+        <v>0.005355019431046973</v>
       </c>
       <c r="C14">
-        <v>-0.0322100580031397</v>
+        <v>0.0306567672376792</v>
       </c>
       <c r="D14">
-        <v>0.01579371485867631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02803160812968091</v>
+      </c>
+      <c r="E14">
+        <v>0.02590238202626326</v>
+      </c>
+      <c r="F14">
+        <v>0.09786677435467724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001134767683011589</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003123637303249964</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00435621553833791</v>
+      </c>
+      <c r="E15">
+        <v>-5.178395090632033e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.003048677077324164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03431963514020273</v>
+        <v>0.0333767797520292</v>
       </c>
       <c r="C16">
-        <v>-0.04296716939327746</v>
+        <v>0.0458306408091424</v>
       </c>
       <c r="D16">
-        <v>-0.007069075022630471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02869829152670269</v>
+      </c>
+      <c r="E16">
+        <v>0.01942531047135292</v>
+      </c>
+      <c r="F16">
+        <v>0.07054412960648089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02195029825751961</v>
+        <v>0.01607197684231548</v>
       </c>
       <c r="C19">
-        <v>-0.0605200037426245</v>
+        <v>0.05024736049968464</v>
       </c>
       <c r="D19">
-        <v>-0.07084243585464324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09692750339037941</v>
+      </c>
+      <c r="E19">
+        <v>0.07831609669357407</v>
+      </c>
+      <c r="F19">
+        <v>0.09217630615476061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01319360993253024</v>
+        <v>0.01318559835888166</v>
       </c>
       <c r="C20">
-        <v>-0.04325496471203281</v>
+        <v>0.04089824453924707</v>
       </c>
       <c r="D20">
-        <v>-0.01846187510582853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04098482127839363</v>
+      </c>
+      <c r="E20">
+        <v>0.05553182057342563</v>
+      </c>
+      <c r="F20">
+        <v>0.08957953126863084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008281542771525433</v>
+        <v>0.008337381931805559</v>
       </c>
       <c r="C21">
-        <v>-0.04746197771952181</v>
+        <v>0.04439961901361843</v>
       </c>
       <c r="D21">
-        <v>-0.03602269116224231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06969656103802335</v>
+      </c>
+      <c r="E21">
+        <v>0.07364206237184311</v>
+      </c>
+      <c r="F21">
+        <v>0.1347126231618965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00160942918733383</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02269985324975964</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03479435143552125</v>
+      </c>
+      <c r="E22">
+        <v>0.01849423755431</v>
+      </c>
+      <c r="F22">
+        <v>0.02204859668733139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001675898102180452</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02282431680444931</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03448649109273227</v>
+      </c>
+      <c r="E23">
+        <v>0.01878285500622913</v>
+      </c>
+      <c r="F23">
+        <v>0.02192821630741609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02936622982242399</v>
+        <v>0.03292320061591594</v>
       </c>
       <c r="C24">
-        <v>-0.04868577021289512</v>
+        <v>0.05372861596666353</v>
       </c>
       <c r="D24">
-        <v>-0.003134657840195627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02722611417290925</v>
+      </c>
+      <c r="E24">
+        <v>0.01687316740634185</v>
+      </c>
+      <c r="F24">
+        <v>0.07941075952222972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04249144562443671</v>
+        <v>0.04263388115996562</v>
       </c>
       <c r="C25">
-        <v>-0.05988817246374517</v>
+        <v>0.05789222490788225</v>
       </c>
       <c r="D25">
-        <v>0.007163006722451693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02481821084929066</v>
+      </c>
+      <c r="E25">
+        <v>0.01120943477649267</v>
+      </c>
+      <c r="F25">
+        <v>0.08084516777874194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0118857797680391</v>
+        <v>0.01374010473989492</v>
       </c>
       <c r="C26">
-        <v>-0.01501857531198669</v>
+        <v>0.01641865117434223</v>
       </c>
       <c r="D26">
-        <v>-0.002293468017184584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02677005580936883</v>
+      </c>
+      <c r="E26">
+        <v>0.02857797473183816</v>
+      </c>
+      <c r="F26">
+        <v>0.07456617000126928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08613203975805529</v>
+        <v>0.1353271513772274</v>
       </c>
       <c r="C28">
-        <v>0.2251753473171763</v>
+        <v>-0.2430213053896156</v>
       </c>
       <c r="D28">
-        <v>-0.001389439351648923</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0156880982059816</v>
+      </c>
+      <c r="E28">
+        <v>0.0469646296432476</v>
+      </c>
+      <c r="F28">
+        <v>0.05672961700064985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.007812724040003953</v>
+        <v>0.006069579394708181</v>
       </c>
       <c r="C29">
-        <v>-0.02576290392872403</v>
+        <v>0.02660001967928647</v>
       </c>
       <c r="D29">
-        <v>0.01614607025623127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02207909451378483</v>
+      </c>
+      <c r="E29">
+        <v>0.02769138798705036</v>
+      </c>
+      <c r="F29">
+        <v>0.0900837245313228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05087482018566807</v>
+        <v>0.04141570148545179</v>
       </c>
       <c r="C30">
-        <v>-0.05727260752754205</v>
+        <v>0.06492358353521631</v>
       </c>
       <c r="D30">
-        <v>-0.05107458104007154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1076762926644684</v>
+      </c>
+      <c r="E30">
+        <v>0.03955306117407402</v>
+      </c>
+      <c r="F30">
+        <v>0.1047154777714399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04985575834291827</v>
+        <v>0.05464974651013294</v>
       </c>
       <c r="C31">
-        <v>-0.03163620388365153</v>
+        <v>0.0539237947907469</v>
       </c>
       <c r="D31">
-        <v>0.01312921501573305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.008736359704461499</v>
+      </c>
+      <c r="E31">
+        <v>0.04873482632903883</v>
+      </c>
+      <c r="F31">
+        <v>0.08279388132280253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008834067988314567</v>
+        <v>0.003872737106790767</v>
       </c>
       <c r="C32">
-        <v>-0.04352873453096312</v>
+        <v>0.03366502236628938</v>
       </c>
       <c r="D32">
-        <v>-0.02391690111748383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04979463690946255</v>
+      </c>
+      <c r="E32">
+        <v>0.02196210198304458</v>
+      </c>
+      <c r="F32">
+        <v>0.07447943894876691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02591105177760969</v>
+        <v>0.02407594381602576</v>
       </c>
       <c r="C33">
-        <v>-0.05858523195913393</v>
+        <v>0.05473175673295722</v>
       </c>
       <c r="D33">
-        <v>-0.03249969987227817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0814007038523866</v>
+      </c>
+      <c r="E33">
+        <v>0.04911017074962468</v>
+      </c>
+      <c r="F33">
+        <v>0.1296174002191901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04469360994647031</v>
+        <v>0.0410135596076949</v>
       </c>
       <c r="C34">
-        <v>-0.06099311888429845</v>
+        <v>0.06404683848891264</v>
       </c>
       <c r="D34">
-        <v>0.003174295761739148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03502945907398573</v>
+      </c>
+      <c r="E34">
+        <v>-0.006715561228055184</v>
+      </c>
+      <c r="F34">
+        <v>0.07738177824616831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008041642748771321</v>
+        <v>0.01314490343354204</v>
       </c>
       <c r="C36">
-        <v>-0.01408564659114931</v>
+        <v>0.01233563531210786</v>
       </c>
       <c r="D36">
-        <v>-0.0009086146017946155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0286226115704412</v>
+      </c>
+      <c r="E36">
+        <v>0.03439360924243418</v>
+      </c>
+      <c r="F36">
+        <v>0.08231089265214439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0274251314157346</v>
+        <v>0.02408070170613111</v>
       </c>
       <c r="C38">
-        <v>-0.02820753554301858</v>
+        <v>0.02494230134619753</v>
       </c>
       <c r="D38">
-        <v>-0.00020840341948236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0264006863260934</v>
+      </c>
+      <c r="E38">
+        <v>0.0329863745431543</v>
+      </c>
+      <c r="F38">
+        <v>0.068877265017003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04068722973130128</v>
+        <v>0.0389898339596497</v>
       </c>
       <c r="C39">
-        <v>-0.07194441540378115</v>
+        <v>0.06830637525685004</v>
       </c>
       <c r="D39">
-        <v>-0.02074842668812059</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05293025436209303</v>
+      </c>
+      <c r="E39">
+        <v>0.01930883252999804</v>
+      </c>
+      <c r="F39">
+        <v>0.09190901198556109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01453850100300995</v>
+        <v>0.0153833398912124</v>
       </c>
       <c r="C40">
-        <v>-0.03602864196707427</v>
+        <v>0.03994895043507219</v>
       </c>
       <c r="D40">
-        <v>-0.03285852542325034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03873006677104646</v>
+      </c>
+      <c r="E40">
+        <v>0.06872908972661064</v>
+      </c>
+      <c r="F40">
+        <v>0.08843798490870021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.008498950133269588</v>
+        <v>0.01740542871973143</v>
       </c>
       <c r="C41">
-        <v>-0.008979767334507794</v>
+        <v>0.006492522093135088</v>
       </c>
       <c r="D41">
-        <v>-0.0009547148310001919</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0168497049158876</v>
+      </c>
+      <c r="E41">
+        <v>0.03716983074505149</v>
+      </c>
+      <c r="F41">
+        <v>0.07060289816053299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.00139751196971227</v>
+        <v>0.000960199055477764</v>
       </c>
       <c r="C42">
-        <v>-0.00567483081411397</v>
+        <v>0.003071244881907517</v>
       </c>
       <c r="D42">
-        <v>-0.007389099110123588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0008436879775204753</v>
+      </c>
+      <c r="E42">
+        <v>0.00661717043859592</v>
+      </c>
+      <c r="F42">
+        <v>-0.005973217595856689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03160053806642275</v>
+        <v>0.02876367360201069</v>
       </c>
       <c r="C43">
-        <v>-0.02352075312013253</v>
+        <v>0.02139260016656612</v>
       </c>
       <c r="D43">
-        <v>-0.01309141238185637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04045636060566399</v>
+      </c>
+      <c r="E43">
+        <v>0.04315306063106129</v>
+      </c>
+      <c r="F43">
+        <v>0.0849854886729394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01749946621647762</v>
+        <v>0.01367754329887996</v>
       </c>
       <c r="C44">
-        <v>-0.05652473829437905</v>
+        <v>0.0525753138855226</v>
       </c>
       <c r="D44">
-        <v>-0.01526813427393455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03972292757399101</v>
+      </c>
+      <c r="E44">
+        <v>0.05542312332525198</v>
+      </c>
+      <c r="F44">
+        <v>0.08997748056288672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.000855918283149505</v>
+        <v>0.007263268786193877</v>
       </c>
       <c r="C46">
-        <v>-0.02322728872571984</v>
+        <v>0.02535672270022194</v>
       </c>
       <c r="D46">
-        <v>0.0205130528689269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01364724068728104</v>
+      </c>
+      <c r="E46">
+        <v>0.03358279583258083</v>
+      </c>
+      <c r="F46">
+        <v>0.1039750866154556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.08071085683375845</v>
+        <v>0.08619294405837997</v>
       </c>
       <c r="C47">
-        <v>-0.07166398061788812</v>
+        <v>0.08032009884568793</v>
       </c>
       <c r="D47">
-        <v>0.008661248299028925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01654495746211748</v>
+      </c>
+      <c r="E47">
+        <v>0.05415728096323168</v>
+      </c>
+      <c r="F47">
+        <v>0.07932232483139386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01725842710785422</v>
+        <v>0.01553710860368175</v>
       </c>
       <c r="C48">
-        <v>-0.01231753685273099</v>
+        <v>0.01784312967665942</v>
       </c>
       <c r="D48">
-        <v>0.006862797498774254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01871227902579699</v>
+      </c>
+      <c r="E48">
+        <v>0.04482218533336932</v>
+      </c>
+      <c r="F48">
+        <v>0.09653533112605564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0847666500343735</v>
+        <v>0.07073062387491523</v>
       </c>
       <c r="C50">
-        <v>-0.07007589563839106</v>
+        <v>0.07149696865011783</v>
       </c>
       <c r="D50">
-        <v>0.02066600586192308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005399052404121568</v>
+      </c>
+      <c r="E50">
+        <v>0.05125005311748871</v>
+      </c>
+      <c r="F50">
+        <v>0.07401531434421295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01268871560852041</v>
+        <v>0.01038425334569287</v>
       </c>
       <c r="C51">
-        <v>-0.0481710267019068</v>
+        <v>0.03384469260484572</v>
       </c>
       <c r="D51">
-        <v>-0.007735892730627193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04885284181356574</v>
+      </c>
+      <c r="E51">
+        <v>0.02084499131069339</v>
+      </c>
+      <c r="F51">
+        <v>0.08538637140579768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08318158357822494</v>
+        <v>0.09270392645506551</v>
       </c>
       <c r="C53">
-        <v>-0.07261511640562107</v>
+        <v>0.08747415016716539</v>
       </c>
       <c r="D53">
-        <v>0.0271104937130832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03811377306001656</v>
+      </c>
+      <c r="E53">
+        <v>0.05282683401308864</v>
+      </c>
+      <c r="F53">
+        <v>0.08997417535301246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03189659722864545</v>
+        <v>0.02770674280379055</v>
       </c>
       <c r="C54">
-        <v>-0.02199415289379854</v>
+        <v>0.02688929897966057</v>
       </c>
       <c r="D54">
-        <v>-0.001318427727507867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03221682586344742</v>
+      </c>
+      <c r="E54">
+        <v>0.04000177124825621</v>
+      </c>
+      <c r="F54">
+        <v>0.09687861301499284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07303824715956543</v>
+        <v>0.08376332724306741</v>
       </c>
       <c r="C55">
-        <v>-0.06429803936122676</v>
+        <v>0.07180916787090195</v>
       </c>
       <c r="D55">
-        <v>0.03098342567172145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04539828881878478</v>
+      </c>
+      <c r="E55">
+        <v>0.04371012155231104</v>
+      </c>
+      <c r="F55">
+        <v>0.06581469012466723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1494447150413676</v>
+        <v>0.1450598851025209</v>
       </c>
       <c r="C56">
-        <v>-0.09219674559760679</v>
+        <v>0.1060283879191311</v>
       </c>
       <c r="D56">
-        <v>0.03462030292841169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04846590404693413</v>
+      </c>
+      <c r="E56">
+        <v>0.04693320272948107</v>
+      </c>
+      <c r="F56">
+        <v>0.05057793525168745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0008379038507009704</v>
+        <v>0.0001618509797910993</v>
       </c>
       <c r="C57">
-        <v>-0.00333224623945703</v>
+        <v>0.00191524242688982</v>
       </c>
       <c r="D57">
-        <v>-0.01845951196307733</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01625064670243863</v>
+      </c>
+      <c r="E57">
+        <v>0.007595853043185024</v>
+      </c>
+      <c r="F57">
+        <v>0.01100729420584262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07258702111000062</v>
+        <v>0.02820759099768123</v>
       </c>
       <c r="C58">
-        <v>-0.02255236601812323</v>
+        <v>0.04062013376708388</v>
       </c>
       <c r="D58">
-        <v>-0.9337809553554102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4896046005701387</v>
+      </c>
+      <c r="E58">
+        <v>0.6905716851141415</v>
+      </c>
+      <c r="F58">
+        <v>-0.4526946783072398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1355438525379831</v>
+        <v>0.1471058850350676</v>
       </c>
       <c r="C59">
-        <v>0.2041251943726837</v>
+        <v>-0.1864363972828459</v>
       </c>
       <c r="D59">
-        <v>-0.01558704551200826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03161766720746487</v>
+      </c>
+      <c r="E59">
+        <v>0.02572293035733374</v>
+      </c>
+      <c r="F59">
+        <v>0.02241300036675079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.31175778299607</v>
+        <v>0.2835723633241419</v>
       </c>
       <c r="C60">
-        <v>-0.09092699822600202</v>
+        <v>0.09822796148588109</v>
       </c>
       <c r="D60">
-        <v>-0.01035557275940387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2034123809521299</v>
+      </c>
+      <c r="E60">
+        <v>-0.2739967245279694</v>
+      </c>
+      <c r="F60">
+        <v>-0.1157869979622171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03866734767810501</v>
+        <v>0.04012067036545013</v>
       </c>
       <c r="C61">
-        <v>-0.06378857412728582</v>
+        <v>0.062578787427006</v>
       </c>
       <c r="D61">
-        <v>-0.01090621224572697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04656225658422442</v>
+      </c>
+      <c r="E61">
+        <v>0.02233311143691996</v>
+      </c>
+      <c r="F61">
+        <v>0.08271722709427318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01461731709841666</v>
+        <v>0.0149630934505938</v>
       </c>
       <c r="C63">
-        <v>-0.03545687265507374</v>
+        <v>0.03261327707419064</v>
       </c>
       <c r="D63">
-        <v>0.001430469979108495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02367145482529315</v>
+      </c>
+      <c r="E63">
+        <v>0.03741561676754402</v>
+      </c>
+      <c r="F63">
+        <v>0.07780952541101195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05229852405311854</v>
+        <v>0.05523125648843406</v>
       </c>
       <c r="C64">
-        <v>-0.03778092615580593</v>
+        <v>0.05387868052484258</v>
       </c>
       <c r="D64">
-        <v>0.010014954625101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006670838009938376</v>
+      </c>
+      <c r="E64">
+        <v>0.01982650550445494</v>
+      </c>
+      <c r="F64">
+        <v>0.08597443210689427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09539587853709387</v>
+        <v>0.06722466808050659</v>
       </c>
       <c r="C65">
-        <v>-0.03723962555257764</v>
+        <v>0.03745298461443421</v>
       </c>
       <c r="D65">
-        <v>-0.04016552408802159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08593093630018893</v>
+      </c>
+      <c r="E65">
+        <v>0.03299054081048859</v>
+      </c>
+      <c r="F65">
+        <v>0.02088332749648566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06150103995588501</v>
+        <v>0.051260863764025</v>
       </c>
       <c r="C66">
-        <v>-0.1032211857557518</v>
+        <v>0.09128550558486255</v>
       </c>
       <c r="D66">
-        <v>-0.03254687483601505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08026632603109646</v>
+      </c>
+      <c r="E66">
+        <v>0.02205473157663925</v>
+      </c>
+      <c r="F66">
+        <v>0.09434415965025574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.04951715563720405</v>
+        <v>0.04617170374127047</v>
       </c>
       <c r="C67">
-        <v>-0.033270742555201</v>
+        <v>0.03088720199704763</v>
       </c>
       <c r="D67">
-        <v>0.005932704242192792</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01243610373701195</v>
+      </c>
+      <c r="E67">
+        <v>0.01598609693228519</v>
+      </c>
+      <c r="F67">
+        <v>0.05375611836375853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1153401983753695</v>
+        <v>0.152604327432202</v>
       </c>
       <c r="C68">
-        <v>0.2896145162599075</v>
+        <v>-0.251933396359919</v>
       </c>
       <c r="D68">
-        <v>0.002153563720579076</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01776636866658404</v>
+      </c>
+      <c r="E68">
+        <v>0.04281688662296104</v>
+      </c>
+      <c r="F68">
+        <v>0.01937312872603975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08385026987328487</v>
+        <v>0.0859302068873192</v>
       </c>
       <c r="C69">
-        <v>-0.06915031192386698</v>
+        <v>0.08680717120752411</v>
       </c>
       <c r="D69">
-        <v>0.03502095209199508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01241978593657291</v>
+      </c>
+      <c r="E69">
+        <v>0.03053543351826927</v>
+      </c>
+      <c r="F69">
+        <v>0.09618499583181608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1170835532286839</v>
+        <v>0.1444406032716891</v>
       </c>
       <c r="C71">
-        <v>0.2498654202280558</v>
+        <v>-0.232857734147451</v>
       </c>
       <c r="D71">
-        <v>-0.02447907808062694</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01605524282107</v>
+      </c>
+      <c r="E71">
+        <v>0.06136581042873994</v>
+      </c>
+      <c r="F71">
+        <v>0.05779784516786967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08363732297835992</v>
+        <v>0.09561574930092538</v>
       </c>
       <c r="C72">
-        <v>-0.04894468693895925</v>
+        <v>0.05779663030014834</v>
       </c>
       <c r="D72">
-        <v>0.01185989944154469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01947207031642171</v>
+      </c>
+      <c r="E72">
+        <v>0.00905138377256348</v>
+      </c>
+      <c r="F72">
+        <v>0.08160000291285789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4402295015940409</v>
+        <v>0.3474814498712058</v>
       </c>
       <c r="C73">
-        <v>-0.05859662661029745</v>
+        <v>0.07689276115072391</v>
       </c>
       <c r="D73">
-        <v>-0.09118855292519754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4316993181284809</v>
+      </c>
+      <c r="E73">
+        <v>-0.483275849692372</v>
+      </c>
+      <c r="F73">
+        <v>-0.293430523511422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1121456129669338</v>
+        <v>0.1104497866156343</v>
       </c>
       <c r="C74">
-        <v>-0.1081018709354009</v>
+        <v>0.1009517784496899</v>
       </c>
       <c r="D74">
-        <v>0.007307925682437054</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0284517097429263</v>
+      </c>
+      <c r="E74">
+        <v>0.06215747153289761</v>
+      </c>
+      <c r="F74">
+        <v>0.05684864144877688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2507511390393189</v>
+        <v>0.2554678030532147</v>
       </c>
       <c r="C75">
-        <v>-0.1167477591085932</v>
+        <v>0.1376909867706842</v>
       </c>
       <c r="D75">
-        <v>0.05003868334453154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.127670072731131</v>
+      </c>
+      <c r="E75">
+        <v>0.07327450690273717</v>
+      </c>
+      <c r="F75">
+        <v>0.0153715943550879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1139672755761182</v>
+        <v>0.1279030363795602</v>
       </c>
       <c r="C76">
-        <v>-0.09148357038977419</v>
+        <v>0.1028452523966377</v>
       </c>
       <c r="D76">
-        <v>0.02645952127531461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05685345770153957</v>
+      </c>
+      <c r="E76">
+        <v>0.06695985317610463</v>
+      </c>
+      <c r="F76">
+        <v>0.0716009118198935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0767137332575452</v>
+        <v>0.06174887433497548</v>
       </c>
       <c r="C77">
-        <v>-0.05710177928746872</v>
+        <v>0.06945583031517502</v>
       </c>
       <c r="D77">
-        <v>-0.05165163039192235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06535000549251868</v>
+      </c>
+      <c r="E77">
+        <v>0.06611021774787385</v>
+      </c>
+      <c r="F77">
+        <v>0.1164689870135186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04534276748124688</v>
+        <v>0.04369328959770633</v>
       </c>
       <c r="C78">
-        <v>-0.04362555682423952</v>
+        <v>0.05507161085501314</v>
       </c>
       <c r="D78">
-        <v>-0.01525884690098277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07249544953538833</v>
+      </c>
+      <c r="E78">
+        <v>0.02084052151452814</v>
+      </c>
+      <c r="F78">
+        <v>0.1042661263862786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02464099041610101</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03820084968739066</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05933724586184401</v>
+      </c>
+      <c r="E79">
+        <v>0.05190438575373258</v>
+      </c>
+      <c r="F79">
+        <v>0.04178155917522893</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04594709509001403</v>
+        <v>0.03424729582746192</v>
       </c>
       <c r="C80">
-        <v>-0.0570924728807898</v>
+        <v>0.05553747399690716</v>
       </c>
       <c r="D80">
-        <v>-0.02576098678248721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0476155744658978</v>
+      </c>
+      <c r="E80">
+        <v>0.009279224643803569</v>
+      </c>
+      <c r="F80">
+        <v>0.03636526871806909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1423158088387035</v>
+        <v>0.1397906578568045</v>
       </c>
       <c r="C81">
-        <v>-0.07396874482886441</v>
+        <v>0.09758094070430463</v>
       </c>
       <c r="D81">
-        <v>0.02464350445453826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09424017697187465</v>
+      </c>
+      <c r="E81">
+        <v>0.0817163980385638</v>
+      </c>
+      <c r="F81">
+        <v>0.02167228540015019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1374365321368733</v>
+        <v>0.1983525711711341</v>
       </c>
       <c r="C82">
-        <v>-0.05703667853120049</v>
+        <v>0.138042791451061</v>
       </c>
       <c r="D82">
-        <v>0.1195403049442998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2262922680819931</v>
+      </c>
+      <c r="E82">
+        <v>0.01941433052866318</v>
+      </c>
+      <c r="F82">
+        <v>0.08594953631921869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02816986957463552</v>
+        <v>0.02730714138367275</v>
       </c>
       <c r="C83">
-        <v>-0.02040709637685314</v>
+        <v>0.04035687192140468</v>
       </c>
       <c r="D83">
-        <v>-0.01611647555377271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03574311055010963</v>
+      </c>
+      <c r="E83">
+        <v>0.008917746783418484</v>
+      </c>
+      <c r="F83">
+        <v>0.04972465605338811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2266479993632416</v>
+        <v>0.203875575830959</v>
       </c>
       <c r="C85">
-        <v>-0.1069022014498801</v>
+        <v>0.1224772432566565</v>
       </c>
       <c r="D85">
-        <v>0.09164181341434624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.102217208816822</v>
+      </c>
+      <c r="E85">
+        <v>0.004402547170787255</v>
+      </c>
+      <c r="F85">
+        <v>-0.01811478981169071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.004786335211598497</v>
+        <v>0.01189151563209874</v>
       </c>
       <c r="C86">
-        <v>-0.02602224435339127</v>
+        <v>0.03021040923202602</v>
       </c>
       <c r="D86">
-        <v>-0.02726237976869659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07138825905219784</v>
+      </c>
+      <c r="E86">
+        <v>0.04187034389872545</v>
+      </c>
+      <c r="F86">
+        <v>0.136538550721101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01796536947153997</v>
+        <v>0.02096209776687148</v>
       </c>
       <c r="C87">
-        <v>-0.01614778052667009</v>
+        <v>0.02177002433800788</v>
       </c>
       <c r="D87">
-        <v>-0.09084876461063331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09286335395770011</v>
+      </c>
+      <c r="E87">
+        <v>0.0869924987530515</v>
+      </c>
+      <c r="F87">
+        <v>0.09495703563681004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1054178117558549</v>
+        <v>0.09085545264883275</v>
       </c>
       <c r="C88">
-        <v>-0.06987155641722596</v>
+        <v>0.06381540245890416</v>
       </c>
       <c r="D88">
-        <v>0.01508407039479218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01160148518713844</v>
+      </c>
+      <c r="E88">
+        <v>0.03495569197912014</v>
+      </c>
+      <c r="F88">
+        <v>0.07295534962329049</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1769505849485083</v>
+        <v>0.2246545391710764</v>
       </c>
       <c r="C89">
-        <v>0.3760785868132196</v>
+        <v>-0.3779048747116314</v>
       </c>
       <c r="D89">
-        <v>0.02616552083015243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01489347125113549</v>
+      </c>
+      <c r="E89">
+        <v>0.03993881520358977</v>
+      </c>
+      <c r="F89">
+        <v>0.09614467463875399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1743337395565792</v>
+        <v>0.2033778881647801</v>
       </c>
       <c r="C90">
-        <v>0.3472168661334175</v>
+        <v>-0.3146766953538077</v>
       </c>
       <c r="D90">
-        <v>0.01022374998152337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01248582044613427</v>
+      </c>
+      <c r="E90">
+        <v>0.06688706120877186</v>
+      </c>
+      <c r="F90">
+        <v>0.04687736895361944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1944283662835662</v>
+        <v>0.1862306563339633</v>
       </c>
       <c r="C91">
-        <v>-0.1128719532759707</v>
+        <v>0.1403539319446756</v>
       </c>
       <c r="D91">
-        <v>0.05164226594974979</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1044781384886354</v>
+      </c>
+      <c r="E91">
+        <v>0.0648842062777224</v>
+      </c>
+      <c r="F91">
+        <v>0.03673274590370351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.168508894715196</v>
+        <v>0.1829952068011914</v>
       </c>
       <c r="C92">
-        <v>0.2924364862566742</v>
+        <v>-0.2794024756401541</v>
       </c>
       <c r="D92">
-        <v>0.01386640214026436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003260883167112957</v>
+      </c>
+      <c r="E92">
+        <v>0.07148229612335143</v>
+      </c>
+      <c r="F92">
+        <v>0.08169930729474142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.2000292976806239</v>
+        <v>0.2273214302040554</v>
       </c>
       <c r="C93">
-        <v>0.336903018682065</v>
+        <v>-0.3184124087213628</v>
       </c>
       <c r="D93">
-        <v>0.003139811644656865</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004131929730772255</v>
+      </c>
+      <c r="E93">
+        <v>0.05155939875597199</v>
+      </c>
+      <c r="F93">
+        <v>0.04467569805807966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3172143310866414</v>
+        <v>0.3411268565951963</v>
       </c>
       <c r="C94">
-        <v>-0.1705069751149632</v>
+        <v>0.1901437865495927</v>
       </c>
       <c r="D94">
-        <v>0.1910262446362066</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4754063272848749</v>
+      </c>
+      <c r="E94">
+        <v>0.1521581004429377</v>
+      </c>
+      <c r="F94">
+        <v>-0.4432289873065076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.099685552619626</v>
+        <v>0.0839262331016294</v>
       </c>
       <c r="C95">
-        <v>-0.07763156008288963</v>
+        <v>0.06861168339959944</v>
       </c>
       <c r="D95">
-        <v>-0.04539050761732416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1577566038381964</v>
+      </c>
+      <c r="E95">
+        <v>-0.1272058146090946</v>
+      </c>
+      <c r="F95">
+        <v>0.1708605560761523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1944803297339493</v>
+        <v>0.1885832287996743</v>
       </c>
       <c r="C98">
-        <v>-0.01388568051851551</v>
+        <v>0.04104954799552572</v>
       </c>
       <c r="D98">
-        <v>-0.04947863283202668</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1764526216625989</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569421332855901</v>
+      </c>
+      <c r="F98">
+        <v>-0.04359086226994261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.007719589214668605</v>
+        <v>0.006084560444070749</v>
       </c>
       <c r="C101">
-        <v>-0.02577081424911435</v>
+        <v>0.02636934258563697</v>
       </c>
       <c r="D101">
-        <v>0.01628343328065355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02152194845855261</v>
+      </c>
+      <c r="E101">
+        <v>0.02831425286788687</v>
+      </c>
+      <c r="F101">
+        <v>0.08982363047994449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.123480478364638</v>
+        <v>0.1238469107262803</v>
       </c>
       <c r="C102">
-        <v>-0.07415555330010971</v>
+        <v>0.09983070037478174</v>
       </c>
       <c r="D102">
-        <v>0.03161888032129467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0508896424530956</v>
+      </c>
+      <c r="E102">
+        <v>-0.007543481191692421</v>
+      </c>
+      <c r="F102">
+        <v>0.03985923447918017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
